--- a/test.xlsx
+++ b/test.xlsx
@@ -43,150 +43,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>2021-12-19 00:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 01:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 02:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 03:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 04:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 05:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 06:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 07:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 08:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 09:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 10:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 11:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 12:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 13:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 14:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 15:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 16:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 17:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 18:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 19:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 20:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 21:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 22:00</t>
-  </si>
-  <si>
-    <t>2021-12-19 23:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 00:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 01:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 02:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 03:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 04:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 05:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 06:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 07:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 08:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 09:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 10:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 11:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 12:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 13:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 14:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 15:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 16:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 17:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 18:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 19:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 20:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 21:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 22:00</t>
-  </si>
-  <si>
-    <t>2021-12-20 23:00</t>
-  </si>
-  <si>
     <t>2021-12-21 00:00</t>
   </si>
   <si>
@@ -617,6 +473,150 @@
   </si>
   <si>
     <t>2021-12-26 23:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 00:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 01:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 02:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 03:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 04:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 05:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 06:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 07:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 08:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 09:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 10:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 11:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 12:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 13:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 14:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 15:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 16:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 17:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 18:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 19:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 20:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 21:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 22:00</t>
+  </si>
+  <si>
+    <t>2021-12-27 23:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 00:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 01:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 02:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 03:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 04:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 05:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 06:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 07:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 08:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 09:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 10:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 11:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 12:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 13:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 14:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 15:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 16:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 17:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 18:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 19:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 20:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 21:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 22:00</t>
+  </si>
+  <si>
+    <t>2021-12-28 23:00</t>
   </si>
   <si>
     <t>London</t>
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.9</v>
+        <v>6.7</v>
       </c>
       <c r="H2">
-        <v>8.9</v>
+        <v>11.7</v>
       </c>
       <c r="I2">
-        <v>11.9</v>
+        <v>14.7</v>
       </c>
       <c r="J2" t="s">
         <v>201</v>
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>11.9</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>14.9</v>
       </c>
       <c r="J3" t="s">
         <v>201</v>
@@ -1084,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>9.1</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>12.1</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>201</v>
@@ -1116,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="H5">
-        <v>9.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="I5">
-        <v>12.2</v>
+        <v>15.2</v>
       </c>
       <c r="J5" t="s">
         <v>201</v>
@@ -1148,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="H6">
-        <v>9.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="I6">
-        <v>12.3</v>
+        <v>15.3</v>
       </c>
       <c r="J6" t="s">
         <v>201</v>
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4.4</v>
+        <v>7.5</v>
       </c>
       <c r="H7">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="I7">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="s">
         <v>201</v>
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="H8">
-        <v>9.5</v>
+        <v>12.6</v>
       </c>
       <c r="I8">
-        <v>12.5</v>
+        <v>15.6</v>
       </c>
       <c r="J8" t="s">
         <v>201</v>
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="H9">
-        <v>9.6</v>
+        <v>12.6</v>
       </c>
       <c r="I9">
-        <v>12.6</v>
+        <v>15.6</v>
       </c>
       <c r="J9" t="s">
         <v>201</v>
@@ -1276,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="H10">
-        <v>9.699999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="I10">
-        <v>12.7</v>
+        <v>15.6</v>
       </c>
       <c r="J10" t="s">
         <v>201</v>
@@ -1308,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="H11">
-        <v>9.800000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="I11">
-        <v>12.8</v>
+        <v>15.6</v>
       </c>
       <c r="J11" t="s">
         <v>201</v>
@@ -1340,7 +1340,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="H12">
-        <v>8.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="I12">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="J12" t="s">
         <v>201</v>
@@ -1372,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H13">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="I13">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
       <c r="J13" t="s">
         <v>201</v>
@@ -1404,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.4</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="H14">
-        <v>6.4</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I14">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="J14" t="s">
         <v>201</v>
@@ -1436,7 +1436,7 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.699999999999999</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="H15">
-        <v>6.699999999999999</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I15">
-        <v>9.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="J15" t="s">
         <v>201</v>
@@ -1468,7 +1468,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.1</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="H16">
-        <v>7.1</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="I16">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="J16" t="s">
         <v>201</v>
@@ -1500,7 +1500,7 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.4</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="H17">
-        <v>7.4</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="I17">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="J17" t="s">
         <v>201</v>
@@ -1564,7 +1564,7 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H19">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I19">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="J19" t="s">
         <v>201</v>
@@ -1596,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H20">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="I20">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="J20" t="s">
         <v>201</v>
@@ -1628,7 +1628,7 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H21">
-        <v>8.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="I21">
-        <v>11.3</v>
+        <v>13.1</v>
       </c>
       <c r="J21" t="s">
         <v>201</v>
@@ -1660,7 +1660,7 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="H22">
-        <v>8.1</v>
+        <v>11.4</v>
       </c>
       <c r="I22">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
       <c r="J22" t="s">
         <v>201</v>
@@ -1692,25 +1692,25 @@
         <v>30</v>
       </c>
       <c r="C23">
+        <v>2.9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>7.6</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>2.9</v>
-      </c>
       <c r="H23">
-        <v>7.9</v>
+        <v>12.6</v>
       </c>
       <c r="I23">
-        <v>10.9</v>
+        <v>15.6</v>
       </c>
       <c r="J23" t="s">
         <v>201</v>
@@ -1724,7 +1724,7 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>7.7</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>12.7</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>15.7</v>
       </c>
       <c r="J24" t="s">
         <v>201</v>
@@ -1756,7 +1756,7 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="H25">
-        <v>8.1</v>
+        <v>12.7</v>
       </c>
       <c r="I25">
-        <v>11.1</v>
+        <v>15.7</v>
       </c>
       <c r="J25" t="s">
         <v>201</v>
@@ -1788,7 +1788,7 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>7.3</v>
+        <v>2.7</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>3.2</v>
+        <v>7.8</v>
       </c>
       <c r="H26">
-        <v>8.199999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="I26">
-        <v>11.2</v>
+        <v>15.8</v>
       </c>
       <c r="J26" t="s">
         <v>201</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>3.1</v>
+        <v>7.9</v>
       </c>
       <c r="H27">
-        <v>8.1</v>
+        <v>12.9</v>
       </c>
       <c r="I27">
-        <v>11.1</v>
+        <v>15.9</v>
       </c>
       <c r="J27" t="s">
         <v>201</v>
@@ -1852,7 +1852,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>13.1</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>16.1</v>
       </c>
       <c r="J28" t="s">
         <v>201</v>
@@ -1884,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1896,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H29">
-        <v>7.9</v>
+        <v>13.2</v>
       </c>
       <c r="I29">
-        <v>10.9</v>
+        <v>16.2</v>
       </c>
       <c r="J29" t="s">
         <v>201</v>
@@ -1916,7 +1916,7 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="H30">
-        <v>8.6</v>
+        <v>13.4</v>
       </c>
       <c r="I30">
-        <v>11.6</v>
+        <v>16.4</v>
       </c>
       <c r="J30" t="s">
         <v>201</v>
@@ -1948,7 +1948,7 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="H31">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="I31">
-        <v>12.2</v>
+        <v>16.5</v>
       </c>
       <c r="J31" t="s">
         <v>201</v>
@@ -1980,7 +1980,7 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1992,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>4.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H32">
-        <v>9.9</v>
+        <v>13.7</v>
       </c>
       <c r="I32">
-        <v>12.9</v>
+        <v>16.7</v>
       </c>
       <c r="J32" t="s">
         <v>201</v>
@@ -2012,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2024,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
       <c r="H33">
-        <v>10.1</v>
+        <v>13.6</v>
       </c>
       <c r="I33">
-        <v>13.1</v>
+        <v>16.6</v>
       </c>
       <c r="J33" t="s">
         <v>201</v>
@@ -2044,7 +2044,7 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>5.2</v>
+        <v>8.5</v>
       </c>
       <c r="H34">
-        <v>10.2</v>
+        <v>13.5</v>
       </c>
       <c r="I34">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="J34" t="s">
         <v>201</v>
@@ -2076,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="H35">
-        <v>10.4</v>
+        <v>13.4</v>
       </c>
       <c r="I35">
-        <v>13.4</v>
+        <v>16.4</v>
       </c>
       <c r="J35" t="s">
         <v>201</v>
@@ -2108,7 +2108,7 @@
         <v>43</v>
       </c>
       <c r="C36">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2120,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="H36">
-        <v>9.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="I36">
-        <v>12.8</v>
+        <v>15.4</v>
       </c>
       <c r="J36" t="s">
         <v>201</v>
@@ -2140,7 +2140,7 @@
         <v>44</v>
       </c>
       <c r="C37">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2152,13 +2152,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4.3</v>
+        <v>6.5</v>
       </c>
       <c r="H37">
-        <v>9.300000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="I37">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="J37" t="s">
         <v>201</v>
@@ -2172,7 +2172,7 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2184,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="H38">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I38">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J38" t="s">
         <v>201</v>
@@ -2204,7 +2204,7 @@
         <v>46</v>
       </c>
       <c r="C39">
-        <v>6.9</v>
+        <v>5.3</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="H39">
-        <v>8.6</v>
+        <v>10.2</v>
       </c>
       <c r="I39">
-        <v>11.6</v>
+        <v>13.2</v>
       </c>
       <c r="J39" t="s">
         <v>201</v>
@@ -2236,7 +2236,7 @@
         <v>47</v>
       </c>
       <c r="C40">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H40">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I40">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
       <c r="J40" t="s">
         <v>201</v>
@@ -2268,7 +2268,7 @@
         <v>48</v>
       </c>
       <c r="C41">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H41">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="I41">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="J41" t="s">
         <v>201</v>
@@ -2300,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="I42">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
         <v>201</v>
@@ -2332,7 +2332,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2344,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="H43">
-        <v>8.6</v>
+        <v>10.4</v>
       </c>
       <c r="I43">
-        <v>11.6</v>
+        <v>13.4</v>
       </c>
       <c r="J43" t="s">
         <v>201</v>
@@ -2364,7 +2364,7 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2376,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="H44">
-        <v>8.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="I44">
-        <v>11.7</v>
+        <v>13.9</v>
       </c>
       <c r="J44" t="s">
         <v>201</v>
@@ -2396,7 +2396,7 @@
         <v>52</v>
       </c>
       <c r="C45">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="H45">
-        <v>8.6</v>
+        <v>10.7</v>
       </c>
       <c r="I45">
-        <v>11.6</v>
+        <v>13.7</v>
       </c>
       <c r="J45" t="s">
         <v>201</v>
@@ -2428,7 +2428,7 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H46">
-        <v>8.4</v>
+        <v>10.6</v>
       </c>
       <c r="I46">
-        <v>11.4</v>
+        <v>13.6</v>
       </c>
       <c r="J46" t="s">
         <v>201</v>
@@ -2460,7 +2460,7 @@
         <v>54</v>
       </c>
       <c r="C47">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2472,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H47">
-        <v>8.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="I47">
-        <v>11.3</v>
+        <v>13.4</v>
       </c>
       <c r="J47" t="s">
         <v>201</v>
@@ -2492,7 +2492,7 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2504,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="H48">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="I48">
-        <v>12.4</v>
+        <v>13.8</v>
       </c>
       <c r="J48" t="s">
         <v>201</v>
@@ -2524,7 +2524,7 @@
         <v>56</v>
       </c>
       <c r="C49">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H49">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="I49">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="J49" t="s">
         <v>201</v>
@@ -2556,7 +2556,7 @@
         <v>57</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2568,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H50">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="I50">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="J50" t="s">
         <v>201</v>
@@ -2588,7 +2588,7 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H51">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="I51">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J51" t="s">
         <v>201</v>
@@ -2620,7 +2620,7 @@
         <v>59</v>
       </c>
       <c r="C52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2632,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="J52" t="s">
         <v>201</v>
@@ -2652,7 +2652,7 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2664,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H53">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="I53">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
         <v>201</v>
@@ -2684,7 +2684,7 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="H54">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="I54">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="J54" t="s">
         <v>201</v>
@@ -2716,7 +2716,7 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="H55">
-        <v>12.5</v>
+        <v>11.2</v>
       </c>
       <c r="I55">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="J55" t="s">
         <v>201</v>
@@ -2748,7 +2748,7 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="H56">
-        <v>12.6</v>
+        <v>10.8</v>
       </c>
       <c r="I56">
-        <v>15.6</v>
+        <v>13.8</v>
       </c>
       <c r="J56" t="s">
         <v>201</v>
@@ -2780,7 +2780,7 @@
         <v>64</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2792,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="H57">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="I57">
-        <v>15.6</v>
+        <v>13.7</v>
       </c>
       <c r="J57" t="s">
         <v>201</v>
@@ -2812,7 +2812,7 @@
         <v>65</v>
       </c>
       <c r="C58">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2824,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="H58">
-        <v>12.6</v>
+        <v>10.5</v>
       </c>
       <c r="I58">
-        <v>15.6</v>
+        <v>13.5</v>
       </c>
       <c r="J58" t="s">
         <v>201</v>
@@ -2844,7 +2844,7 @@
         <v>66</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2856,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="H59">
-        <v>12.6</v>
+        <v>10.4</v>
       </c>
       <c r="I59">
-        <v>15.6</v>
+        <v>13.4</v>
       </c>
       <c r="J59" t="s">
         <v>201</v>
@@ -2876,7 +2876,7 @@
         <v>67</v>
       </c>
       <c r="C60">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H60">
-        <v>10.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I60">
-        <v>13.8</v>
+        <v>12.2</v>
       </c>
       <c r="J60" t="s">
         <v>201</v>
@@ -2908,7 +2908,7 @@
         <v>68</v>
       </c>
       <c r="C61">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H61">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="I61">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="J61" t="s">
         <v>201</v>
@@ -2940,7 +2940,7 @@
         <v>69</v>
       </c>
       <c r="C62">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H62">
-        <v>7.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I62">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="J62" t="s">
         <v>201</v>
@@ -2972,7 +2972,7 @@
         <v>70</v>
       </c>
       <c r="C63">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2984,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>2.300000000000001</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="H63">
-        <v>7.300000000000001</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="I63">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J63" t="s">
         <v>201</v>
@@ -3004,7 +3004,7 @@
         <v>71</v>
       </c>
       <c r="C64">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>2.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H64">
-        <v>7.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="I64">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="J64" t="s">
         <v>201</v>
@@ -3036,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="C65">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>2.199999999999999</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H65">
-        <v>7.199999999999999</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="I65">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J65" t="s">
         <v>201</v>
@@ -3068,7 +3068,7 @@
         <v>73</v>
       </c>
       <c r="C66">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="I66">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="J66" t="s">
         <v>201</v>
@@ -3100,7 +3100,7 @@
         <v>74</v>
       </c>
       <c r="C67">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>3.3</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="H67">
-        <v>8.300000000000001</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="I67">
-        <v>11.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J67" t="s">
         <v>201</v>
@@ -3132,7 +3132,7 @@
         <v>75</v>
       </c>
       <c r="C68">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3144,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H68">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="I68">
-        <v>11.9</v>
+        <v>8.5</v>
       </c>
       <c r="J68" t="s">
         <v>201</v>
@@ -3164,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="C69">
-        <v>5.4</v>
+        <v>9.5</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>10.1</v>
+        <v>6</v>
       </c>
       <c r="I69">
-        <v>13.1</v>
+        <v>9</v>
       </c>
       <c r="J69" t="s">
         <v>201</v>
@@ -3196,7 +3196,7 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>4.1</v>
+        <v>8.9</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3208,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H70">
-        <v>11.4</v>
+        <v>6.6</v>
       </c>
       <c r="I70">
-        <v>14.4</v>
+        <v>9.6</v>
       </c>
       <c r="J70" t="s">
         <v>201</v>
@@ -3228,7 +3228,7 @@
         <v>78</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>7.6</v>
+        <v>2.1</v>
       </c>
       <c r="H71">
-        <v>12.6</v>
+        <v>7.1</v>
       </c>
       <c r="I71">
-        <v>15.6</v>
+        <v>10.1</v>
       </c>
       <c r="J71" t="s">
         <v>201</v>
@@ -3260,7 +3260,7 @@
         <v>79</v>
       </c>
       <c r="C72">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="H72">
-        <v>12.7</v>
+        <v>7.5</v>
       </c>
       <c r="I72">
-        <v>15.7</v>
+        <v>10.5</v>
       </c>
       <c r="J72" t="s">
         <v>201</v>
@@ -3292,25 +3292,25 @@
         <v>80</v>
       </c>
       <c r="C73">
+        <v>7.7</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>2.8</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>7.7</v>
-      </c>
       <c r="H73">
-        <v>12.7</v>
+        <v>7.8</v>
       </c>
       <c r="I73">
-        <v>15.7</v>
+        <v>10.8</v>
       </c>
       <c r="J73" t="s">
         <v>201</v>
@@ -3324,7 +3324,7 @@
         <v>81</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3336,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="H74">
-        <v>12.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I74">
-        <v>15.8</v>
+        <v>11.2</v>
       </c>
       <c r="J74" t="s">
         <v>201</v>
@@ -3356,7 +3356,7 @@
         <v>82</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="H75">
-        <v>12.9</v>
+        <v>8.4</v>
       </c>
       <c r="I75">
-        <v>15.9</v>
+        <v>11.4</v>
       </c>
       <c r="J75" t="s">
         <v>201</v>
@@ -3388,7 +3388,7 @@
         <v>83</v>
       </c>
       <c r="C76">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3400,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>8.1</v>
+        <v>3.6</v>
       </c>
       <c r="H76">
-        <v>13.1</v>
+        <v>8.6</v>
       </c>
       <c r="I76">
-        <v>16.1</v>
+        <v>11.6</v>
       </c>
       <c r="J76" t="s">
         <v>201</v>
@@ -3420,7 +3420,7 @@
         <v>84</v>
       </c>
       <c r="C77">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H77">
-        <v>13.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I77">
-        <v>16.2</v>
+        <v>11.8</v>
       </c>
       <c r="J77" t="s">
         <v>201</v>
@@ -3452,7 +3452,7 @@
         <v>85</v>
       </c>
       <c r="C78">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3464,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>8.4</v>
+        <v>3.9</v>
       </c>
       <c r="H78">
-        <v>13.4</v>
+        <v>8.9</v>
       </c>
       <c r="I78">
-        <v>16.4</v>
+        <v>11.9</v>
       </c>
       <c r="J78" t="s">
         <v>201</v>
@@ -3484,7 +3484,7 @@
         <v>86</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3496,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>8.5</v>
+        <v>3.9</v>
       </c>
       <c r="H79">
-        <v>13.5</v>
+        <v>8.9</v>
       </c>
       <c r="I79">
-        <v>16.5</v>
+        <v>11.9</v>
       </c>
       <c r="J79" t="s">
         <v>201</v>
@@ -3516,7 +3516,7 @@
         <v>87</v>
       </c>
       <c r="C80">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>8.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H80">
-        <v>13.7</v>
+        <v>9</v>
       </c>
       <c r="I80">
-        <v>16.7</v>
+        <v>12</v>
       </c>
       <c r="J80" t="s">
         <v>201</v>
@@ -3548,7 +3548,7 @@
         <v>88</v>
       </c>
       <c r="C81">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="H81">
-        <v>13.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I81">
-        <v>16.6</v>
+        <v>11.8</v>
       </c>
       <c r="J81" t="s">
         <v>201</v>
@@ -3580,7 +3580,7 @@
         <v>89</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3592,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>8.5</v>
+        <v>3.7</v>
       </c>
       <c r="H82">
-        <v>13.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I82">
-        <v>16.5</v>
+        <v>11.7</v>
       </c>
       <c r="J82" t="s">
         <v>201</v>
@@ -3612,7 +3612,7 @@
         <v>90</v>
       </c>
       <c r="C83">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="H83">
-        <v>13.4</v>
+        <v>8.5</v>
       </c>
       <c r="I83">
-        <v>16.4</v>
+        <v>11.5</v>
       </c>
       <c r="J83" t="s">
         <v>201</v>
@@ -3644,7 +3644,7 @@
         <v>91</v>
       </c>
       <c r="C84">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3656,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="H84">
-        <v>12.4</v>
+        <v>7.7</v>
       </c>
       <c r="I84">
-        <v>15.4</v>
+        <v>10.7</v>
       </c>
       <c r="J84" t="s">
         <v>201</v>
@@ -3676,7 +3676,7 @@
         <v>92</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3688,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>6.5</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="H85">
-        <v>11.5</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="I85">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J85" t="s">
         <v>201</v>
@@ -3708,7 +3708,7 @@
         <v>93</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="I86">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="J86" t="s">
         <v>201</v>
@@ -3740,7 +3740,7 @@
         <v>94</v>
       </c>
       <c r="C87">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>5.2</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="H87">
-        <v>10.2</v>
+        <v>5.9</v>
       </c>
       <c r="I87">
-        <v>13.2</v>
+        <v>8.9</v>
       </c>
       <c r="J87" t="s">
         <v>201</v>
@@ -3772,7 +3772,7 @@
         <v>95</v>
       </c>
       <c r="C88">
-        <v>5.7</v>
+        <v>9.6</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>4.8</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="H88">
-        <v>9.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="I88">
-        <v>12.8</v>
+        <v>8.9</v>
       </c>
       <c r="J88" t="s">
         <v>201</v>
@@ -3804,7 +3804,7 @@
         <v>96</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>4.5</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H89">
-        <v>9.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I89">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J89" t="s">
         <v>201</v>
@@ -3836,7 +3836,7 @@
         <v>97</v>
       </c>
       <c r="C90">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3848,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="I90">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="J90" t="s">
         <v>201</v>
@@ -3868,7 +3868,7 @@
         <v>98</v>
       </c>
       <c r="C91">
-        <v>5.1</v>
+        <v>9.6</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3880,13 +3880,13 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>5.4</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="H91">
-        <v>10.4</v>
+        <v>5.9</v>
       </c>
       <c r="I91">
-        <v>13.4</v>
+        <v>8.9</v>
       </c>
       <c r="J91" t="s">
         <v>201</v>
@@ -3900,7 +3900,7 @@
         <v>99</v>
       </c>
       <c r="C92">
-        <v>4.6</v>
+        <v>9.5</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>10.9</v>
+        <v>6</v>
       </c>
       <c r="I92">
-        <v>13.9</v>
+        <v>9</v>
       </c>
       <c r="J92" t="s">
         <v>201</v>
@@ -3932,7 +3932,7 @@
         <v>100</v>
       </c>
       <c r="C93">
-        <v>4.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3944,13 +3944,13 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>5.7</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H93">
-        <v>10.7</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="I93">
-        <v>13.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J93" t="s">
         <v>201</v>
@@ -3964,7 +3964,7 @@
         <v>101</v>
       </c>
       <c r="C94">
-        <v>4.9</v>
+        <v>9.1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H94">
-        <v>10.6</v>
+        <v>6.4</v>
       </c>
       <c r="I94">
-        <v>13.6</v>
+        <v>9.4</v>
       </c>
       <c r="J94" t="s">
         <v>201</v>
@@ -3996,7 +3996,7 @@
         <v>102</v>
       </c>
       <c r="C95">
-        <v>5.1</v>
+        <v>8.9</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4008,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H95">
-        <v>10.4</v>
+        <v>6.6</v>
       </c>
       <c r="I95">
-        <v>13.4</v>
+        <v>9.6</v>
       </c>
       <c r="J95" t="s">
         <v>201</v>
@@ -4028,7 +4028,7 @@
         <v>103</v>
       </c>
       <c r="C96">
-        <v>4.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4040,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>5.8</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="H96">
-        <v>10.8</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="I96">
-        <v>13.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J96" t="s">
         <v>201</v>
@@ -4060,7 +4060,7 @@
         <v>104</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4072,13 +4072,13 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>11.2</v>
+        <v>7</v>
       </c>
       <c r="I97">
-        <v>14.2</v>
+        <v>10</v>
       </c>
       <c r="J97" t="s">
         <v>201</v>
@@ -4092,7 +4092,7 @@
         <v>105</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>6.6</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="H98">
-        <v>11.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="I98">
-        <v>14.6</v>
+        <v>10.2</v>
       </c>
       <c r="J98" t="s">
         <v>201</v>
@@ -4124,7 +4124,7 @@
         <v>106</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4136,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>6.7</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="H99">
-        <v>11.7</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I99">
-        <v>14.7</v>
+        <v>10.3</v>
       </c>
       <c r="J99" t="s">
         <v>201</v>
@@ -4156,7 +4156,7 @@
         <v>107</v>
       </c>
       <c r="C100">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4168,13 +4168,13 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>6.9</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="H100">
-        <v>11.9</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I100">
-        <v>14.9</v>
+        <v>10.3</v>
       </c>
       <c r="J100" t="s">
         <v>201</v>
@@ -4188,7 +4188,7 @@
         <v>108</v>
       </c>
       <c r="C101">
-        <v>3.5</v>
+        <v>8.1</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4200,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="H101">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="I101">
-        <v>15</v>
+        <v>10.4</v>
       </c>
       <c r="J101" t="s">
         <v>201</v>
@@ -4220,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="C102">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4232,13 +4232,13 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="H102">
-        <v>11.6</v>
+        <v>7.5</v>
       </c>
       <c r="I102">
-        <v>14.6</v>
+        <v>10.5</v>
       </c>
       <c r="J102" t="s">
         <v>201</v>
@@ -4252,7 +4252,7 @@
         <v>110</v>
       </c>
       <c r="C103">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4264,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="H103">
-        <v>11.2</v>
+        <v>7.5</v>
       </c>
       <c r="I103">
-        <v>14.2</v>
+        <v>10.5</v>
       </c>
       <c r="J103" t="s">
         <v>201</v>
@@ -4284,7 +4284,7 @@
         <v>111</v>
       </c>
       <c r="C104">
-        <v>4.7</v>
+        <v>7.9</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4296,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H104">
-        <v>10.8</v>
+        <v>7.6</v>
       </c>
       <c r="I104">
-        <v>13.8</v>
+        <v>10.6</v>
       </c>
       <c r="J104" t="s">
         <v>201</v>
@@ -4316,7 +4316,7 @@
         <v>112</v>
       </c>
       <c r="C105">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H105">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
       <c r="I105">
-        <v>13.7</v>
+        <v>11.1</v>
       </c>
       <c r="J105" t="s">
         <v>201</v>
@@ -4348,7 +4348,7 @@
         <v>113</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4360,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="H106">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="I106">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="J106" t="s">
         <v>201</v>
@@ -4380,7 +4380,7 @@
         <v>114</v>
       </c>
       <c r="C107">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4392,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H107">
-        <v>10.4</v>
+        <v>9.1</v>
       </c>
       <c r="I107">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="J107" t="s">
         <v>201</v>
@@ -4444,7 +4444,7 @@
         <v>116</v>
       </c>
       <c r="C109">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4456,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H109">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I109">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J109" t="s">
         <v>201</v>
@@ -4476,7 +4476,7 @@
         <v>117</v>
       </c>
       <c r="C110">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -4488,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H110">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I110">
-        <v>9.9</v>
+        <v>12.3</v>
       </c>
       <c r="J110" t="s">
         <v>201</v>
@@ -4508,7 +4508,7 @@
         <v>118</v>
       </c>
       <c r="C111">
-        <v>8.800000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4520,13 +4520,13 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>1.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H111">
-        <v>6.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I111">
-        <v>9.699999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="J111" t="s">
         <v>201</v>
@@ -4540,7 +4540,7 @@
         <v>119</v>
       </c>
       <c r="C112">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -4552,13 +4552,13 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H112">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="I112">
-        <v>9.4</v>
+        <v>12.4</v>
       </c>
       <c r="J112" t="s">
         <v>201</v>
@@ -4572,7 +4572,7 @@
         <v>120</v>
       </c>
       <c r="C113">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4584,13 +4584,13 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H113">
-        <v>6.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I113">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="J113" t="s">
         <v>201</v>
@@ -4604,7 +4604,7 @@
         <v>121</v>
       </c>
       <c r="C114">
-        <v>9.5</v>
+        <v>5.9</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -4616,13 +4616,13 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="I114">
-        <v>9</v>
+        <v>12.6</v>
       </c>
       <c r="J114" t="s">
         <v>201</v>
@@ -4636,7 +4636,7 @@
         <v>122</v>
       </c>
       <c r="C115">
-        <v>9.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4648,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.6999999999999993</v>
+        <v>4.7</v>
       </c>
       <c r="H115">
-        <v>5.699999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I115">
-        <v>8.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="J115" t="s">
         <v>201</v>
@@ -4668,7 +4668,7 @@
         <v>123</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4680,13 +4680,13 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H116">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I116">
-        <v>8.5</v>
+        <v>12.8</v>
       </c>
       <c r="J116" t="s">
         <v>201</v>
@@ -4700,7 +4700,7 @@
         <v>124</v>
       </c>
       <c r="C117">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4712,13 +4712,13 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I117">
-        <v>9</v>
+        <v>12.7</v>
       </c>
       <c r="J117" t="s">
         <v>201</v>
@@ -4732,7 +4732,7 @@
         <v>125</v>
       </c>
       <c r="C118">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4744,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H118">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I118">
-        <v>9.6</v>
+        <v>12.7</v>
       </c>
       <c r="J118" t="s">
         <v>201</v>
@@ -4764,7 +4764,7 @@
         <v>126</v>
       </c>
       <c r="C119">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -4776,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H119">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="I119">
-        <v>10.1</v>
+        <v>12.6</v>
       </c>
       <c r="J119" t="s">
         <v>201</v>
@@ -4796,7 +4796,7 @@
         <v>127</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -4808,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H120">
-        <v>7.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I120">
-        <v>10.5</v>
+        <v>12.7</v>
       </c>
       <c r="J120" t="s">
         <v>201</v>
@@ -4828,7 +4828,7 @@
         <v>128</v>
       </c>
       <c r="C121">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -4840,13 +4840,13 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H121">
-        <v>7.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I121">
-        <v>10.8</v>
+        <v>12.7</v>
       </c>
       <c r="J121" t="s">
         <v>201</v>
@@ -4860,7 +4860,7 @@
         <v>129</v>
       </c>
       <c r="C122">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4872,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H122">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I122">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="J122" t="s">
         <v>201</v>
@@ -4892,7 +4892,7 @@
         <v>130</v>
       </c>
       <c r="C123">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4904,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H123">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I123">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
       <c r="J123" t="s">
         <v>201</v>
@@ -4924,7 +4924,7 @@
         <v>131</v>
       </c>
       <c r="C124">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H124">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I124">
-        <v>11.6</v>
+        <v>12.7</v>
       </c>
       <c r="J124" t="s">
         <v>201</v>
@@ -4956,7 +4956,7 @@
         <v>132</v>
       </c>
       <c r="C125">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -4968,13 +4968,13 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H125">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I125">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="J125" t="s">
         <v>201</v>
@@ -4988,7 +4988,7 @@
         <v>133</v>
       </c>
       <c r="C126">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H126">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="I126">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
       <c r="J126" t="s">
         <v>201</v>
@@ -5020,7 +5020,7 @@
         <v>134</v>
       </c>
       <c r="C127">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H127">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="I127">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
       <c r="J127" t="s">
         <v>201</v>
@@ -5052,7 +5052,7 @@
         <v>135</v>
       </c>
       <c r="C128">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5064,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H128">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I128">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J128" t="s">
         <v>201</v>
@@ -5084,7 +5084,7 @@
         <v>136</v>
       </c>
       <c r="C129">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5096,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H129">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I129">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="J129" t="s">
         <v>201</v>
@@ -5116,7 +5116,7 @@
         <v>137</v>
       </c>
       <c r="C130">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -5128,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H130">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I130">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="J130" t="s">
         <v>201</v>
@@ -5148,7 +5148,7 @@
         <v>138</v>
       </c>
       <c r="C131">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H131">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I131">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="J131" t="s">
         <v>201</v>
@@ -5180,7 +5180,7 @@
         <v>139</v>
       </c>
       <c r="C132">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5192,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H132">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="I132">
-        <v>10.7</v>
+        <v>12</v>
       </c>
       <c r="J132" t="s">
         <v>201</v>
@@ -5212,25 +5212,25 @@
         <v>140</v>
       </c>
       <c r="C133">
+        <v>6.8</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>3.7</v>
+      </c>
+      <c r="H133">
         <v>8.699999999999999</v>
       </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="H133">
-        <v>6.800000000000001</v>
-      </c>
       <c r="I133">
-        <v>9.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="J133" t="s">
         <v>201</v>
@@ -5244,7 +5244,7 @@
         <v>141</v>
       </c>
       <c r="C134">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5256,13 +5256,13 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="I134">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="J134" t="s">
         <v>201</v>
@@ -5276,7 +5276,7 @@
         <v>142</v>
       </c>
       <c r="C135">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -5288,13 +5288,13 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0.9000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="H135">
-        <v>5.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I135">
-        <v>8.9</v>
+        <v>11.3</v>
       </c>
       <c r="J135" t="s">
         <v>201</v>
@@ -5308,7 +5308,7 @@
         <v>143</v>
       </c>
       <c r="C136">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -5320,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>0.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="H136">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="I136">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="J136" t="s">
         <v>201</v>
@@ -5340,7 +5340,7 @@
         <v>144</v>
       </c>
       <c r="C137">
-        <v>9.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5352,13 +5352,13 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0.8000000000000007</v>
+        <v>2.8</v>
       </c>
       <c r="H137">
-        <v>5.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="I137">
-        <v>8.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="J137" t="s">
         <v>201</v>
@@ -5372,7 +5372,7 @@
         <v>145</v>
       </c>
       <c r="C138">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5384,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0.9000000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="H138">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="I138">
-        <v>8.9</v>
+        <v>10.9</v>
       </c>
       <c r="J138" t="s">
         <v>201</v>
@@ -5404,7 +5404,7 @@
         <v>146</v>
       </c>
       <c r="C139">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>0.9000000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="H139">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="I139">
-        <v>8.9</v>
+        <v>10.9</v>
       </c>
       <c r="J139" t="s">
         <v>201</v>
@@ -5436,7 +5436,7 @@
         <v>147</v>
       </c>
       <c r="C140">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -5448,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I140">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J140" t="s">
         <v>201</v>
@@ -5468,7 +5468,7 @@
         <v>148</v>
       </c>
       <c r="C141">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -5480,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>1.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H141">
-        <v>6.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I141">
-        <v>9.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="J141" t="s">
         <v>201</v>
@@ -5500,7 +5500,7 @@
         <v>149</v>
       </c>
       <c r="C142">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5512,13 +5512,13 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H142">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I142">
-        <v>9.4</v>
+        <v>11.2</v>
       </c>
       <c r="J142" t="s">
         <v>201</v>
@@ -5532,7 +5532,7 @@
         <v>150</v>
       </c>
       <c r="C143">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H143">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I143">
-        <v>9.6</v>
+        <v>11.3</v>
       </c>
       <c r="J143" t="s">
         <v>201</v>
@@ -5564,7 +5564,7 @@
         <v>151</v>
       </c>
       <c r="C144">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>1.800000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="H144">
-        <v>6.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I144">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="J144" t="s">
         <v>201</v>
@@ -5596,7 +5596,7 @@
         <v>152</v>
       </c>
       <c r="C145">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -5608,13 +5608,13 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H145">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I145">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="J145" t="s">
         <v>201</v>
@@ -5628,7 +5628,7 @@
         <v>153</v>
       </c>
       <c r="C146">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -5640,13 +5640,13 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>2.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H146">
-        <v>7.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I146">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="J146" t="s">
         <v>201</v>
@@ -5660,7 +5660,7 @@
         <v>154</v>
       </c>
       <c r="C147">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -5672,13 +5672,13 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>2.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H147">
-        <v>7.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I147">
-        <v>10.3</v>
+        <v>11.7</v>
       </c>
       <c r="J147" t="s">
         <v>201</v>
@@ -5692,7 +5692,7 @@
         <v>155</v>
       </c>
       <c r="C148">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -5704,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>2.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H148">
-        <v>7.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I148">
-        <v>10.3</v>
+        <v>11.4</v>
       </c>
       <c r="J148" t="s">
         <v>201</v>
@@ -5724,25 +5724,25 @@
         <v>156</v>
       </c>
       <c r="C149">
+        <v>7.4</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>3.1</v>
+      </c>
+      <c r="H149">
         <v>8.1</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>2.4</v>
-      </c>
-      <c r="H149">
-        <v>7.4</v>
-      </c>
       <c r="I149">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="J149" t="s">
         <v>201</v>
@@ -5756,7 +5756,7 @@
         <v>157</v>
       </c>
       <c r="C150">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -5768,13 +5768,13 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H150">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="I150">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="J150" t="s">
         <v>201</v>
@@ -5788,25 +5788,25 @@
         <v>158</v>
       </c>
       <c r="C151">
+        <v>7.5</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
         <v>8</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>2.5</v>
-      </c>
-      <c r="H151">
-        <v>7.5</v>
-      </c>
       <c r="I151">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J151" t="s">
         <v>201</v>
@@ -5820,7 +5820,7 @@
         <v>159</v>
       </c>
       <c r="C152">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -5832,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H152">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I152">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="J152" t="s">
         <v>201</v>
@@ -5852,7 +5852,7 @@
         <v>160</v>
       </c>
       <c r="C153">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -5864,13 +5864,13 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H153">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="I153">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="J153" t="s">
         <v>201</v>
@@ -5884,7 +5884,7 @@
         <v>161</v>
       </c>
       <c r="C154">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -5896,13 +5896,13 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H154">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="I154">
-        <v>11.6</v>
+        <v>10.5</v>
       </c>
       <c r="J154" t="s">
         <v>201</v>
@@ -5916,7 +5916,7 @@
         <v>162</v>
       </c>
       <c r="C155">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -5928,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>4.1</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="H155">
-        <v>9.1</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I155">
-        <v>12.1</v>
+        <v>10.3</v>
       </c>
       <c r="J155" t="s">
         <v>201</v>
@@ -5948,7 +5948,7 @@
         <v>163</v>
       </c>
       <c r="C156">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H156">
-        <v>9.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I156">
-        <v>12.2</v>
+        <v>9.9</v>
       </c>
       <c r="J156" t="s">
         <v>201</v>
@@ -5980,7 +5980,7 @@
         <v>164</v>
       </c>
       <c r="C157">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -5992,13 +5992,13 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H157">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="I157">
-        <v>12.2</v>
+        <v>9.4</v>
       </c>
       <c r="J157" t="s">
         <v>201</v>
@@ -6012,7 +6012,7 @@
         <v>165</v>
       </c>
       <c r="C158">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6024,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="I158">
-        <v>12.3</v>
+        <v>9</v>
       </c>
       <c r="J158" t="s">
         <v>201</v>
@@ -6044,7 +6044,7 @@
         <v>166</v>
       </c>
       <c r="C159">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6056,13 +6056,13 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>9.4</v>
+        <v>6</v>
       </c>
       <c r="I159">
-        <v>12.4</v>
+        <v>9</v>
       </c>
       <c r="J159" t="s">
         <v>201</v>
@@ -6076,25 +6076,25 @@
         <v>167</v>
       </c>
       <c r="C160">
+        <v>9.4</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1.1</v>
+      </c>
+      <c r="H160">
         <v>6.1</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>4.4</v>
-      </c>
-      <c r="H160">
-        <v>9.4</v>
-      </c>
       <c r="I160">
-        <v>12.4</v>
+        <v>9.1</v>
       </c>
       <c r="J160" t="s">
         <v>201</v>
@@ -6108,7 +6108,7 @@
         <v>168</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6120,13 +6120,13 @@
         <v>0</v>
       </c>
       <c r="G161">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H161">
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="I161">
-        <v>12.5</v>
+        <v>9.1</v>
       </c>
       <c r="J161" t="s">
         <v>201</v>
@@ -6140,7 +6140,7 @@
         <v>169</v>
       </c>
       <c r="C162">
-        <v>5.9</v>
+        <v>9.4</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -6152,13 +6152,13 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H162">
-        <v>9.6</v>
+        <v>6.1</v>
       </c>
       <c r="I162">
-        <v>12.6</v>
+        <v>9.1</v>
       </c>
       <c r="J162" t="s">
         <v>201</v>
@@ -6172,7 +6172,7 @@
         <v>170</v>
       </c>
       <c r="C163">
-        <v>5.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -6184,13 +6184,13 @@
         <v>0</v>
       </c>
       <c r="G163">
-        <v>4.7</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H163">
-        <v>9.699999999999999</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="I163">
-        <v>12.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J163" t="s">
         <v>201</v>
@@ -6204,7 +6204,7 @@
         <v>171</v>
       </c>
       <c r="C164">
-        <v>5.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -6216,13 +6216,13 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>4.8</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H164">
-        <v>9.800000000000001</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="I164">
-        <v>12.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J164" t="s">
         <v>201</v>
@@ -6236,7 +6236,7 @@
         <v>172</v>
       </c>
       <c r="C165">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -6248,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>4.7</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="H165">
-        <v>9.699999999999999</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="I165">
-        <v>12.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J165" t="s">
         <v>201</v>
@@ -6268,7 +6268,7 @@
         <v>173</v>
       </c>
       <c r="C166">
-        <v>5.8</v>
+        <v>9.1</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6280,13 +6280,13 @@
         <v>0</v>
       </c>
       <c r="G166">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H166">
-        <v>9.699999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="I166">
-        <v>12.7</v>
+        <v>9.4</v>
       </c>
       <c r="J166" t="s">
         <v>201</v>
@@ -6300,7 +6300,7 @@
         <v>174</v>
       </c>
       <c r="C167">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6312,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H167">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="I167">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="J167" t="s">
         <v>201</v>
@@ -6332,7 +6332,7 @@
         <v>175</v>
       </c>
       <c r="C168">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -6344,13 +6344,13 @@
         <v>0</v>
       </c>
       <c r="G168">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H168">
-        <v>9.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I168">
-        <v>12.7</v>
+        <v>9.9</v>
       </c>
       <c r="J168" t="s">
         <v>201</v>
@@ -6364,7 +6364,7 @@
         <v>176</v>
       </c>
       <c r="C169">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6376,13 +6376,13 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>4.7</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="H169">
-        <v>9.699999999999999</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I169">
-        <v>12.7</v>
+        <v>10.3</v>
       </c>
       <c r="J169" t="s">
         <v>201</v>
@@ -6396,7 +6396,7 @@
         <v>177</v>
       </c>
       <c r="C170">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="G170">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H170">
-        <v>9.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="I170">
-        <v>12.8</v>
+        <v>10.7</v>
       </c>
       <c r="J170" t="s">
         <v>201</v>
@@ -6428,7 +6428,7 @@
         <v>178</v>
       </c>
       <c r="C171">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -6440,13 +6440,13 @@
         <v>0</v>
       </c>
       <c r="G171">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H171">
-        <v>9.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="I171">
-        <v>12.8</v>
+        <v>10.7</v>
       </c>
       <c r="J171" t="s">
         <v>201</v>
@@ -6460,7 +6460,7 @@
         <v>179</v>
       </c>
       <c r="C172">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -6472,13 +6472,13 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H172">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I172">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
       <c r="J172" t="s">
         <v>201</v>
@@ -6492,7 +6492,7 @@
         <v>180</v>
       </c>
       <c r="C173">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -6504,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H173">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I173">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
       <c r="J173" t="s">
         <v>201</v>
@@ -6524,7 +6524,7 @@
         <v>181</v>
       </c>
       <c r="C174">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -6536,13 +6536,13 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H174">
-        <v>9.6</v>
+        <v>7.9</v>
       </c>
       <c r="I174">
-        <v>12.6</v>
+        <v>10.9</v>
       </c>
       <c r="J174" t="s">
         <v>201</v>
@@ -6556,7 +6556,7 @@
         <v>182</v>
       </c>
       <c r="C175">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6568,13 +6568,13 @@
         <v>0</v>
       </c>
       <c r="G175">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H175">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I175">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="J175" t="s">
         <v>201</v>
@@ -6588,7 +6588,7 @@
         <v>183</v>
       </c>
       <c r="C176">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -6600,13 +6600,13 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H176">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="I176">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J176" t="s">
         <v>201</v>
@@ -6620,7 +6620,7 @@
         <v>184</v>
       </c>
       <c r="C177">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -6632,13 +6632,13 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H177">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I177">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="J177" t="s">
         <v>201</v>
@@ -6652,7 +6652,7 @@
         <v>185</v>
       </c>
       <c r="C178">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -6664,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H178">
-        <v>9.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="I178">
-        <v>12.3</v>
+        <v>10.9</v>
       </c>
       <c r="J178" t="s">
         <v>201</v>
@@ -6684,7 +6684,7 @@
         <v>186</v>
       </c>
       <c r="C179">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -6696,13 +6696,13 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H179">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I179">
-        <v>12.2</v>
+        <v>10.6</v>
       </c>
       <c r="J179" t="s">
         <v>201</v>
@@ -6716,7 +6716,7 @@
         <v>187</v>
       </c>
       <c r="C180">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -6728,13 +6728,13 @@
         <v>0</v>
       </c>
       <c r="G180">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H180">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="I180">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="J180" t="s">
         <v>201</v>
@@ -6748,7 +6748,7 @@
         <v>188</v>
       </c>
       <c r="C181">
-        <v>6.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -6760,13 +6760,13 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>3.7</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H181">
-        <v>8.699999999999999</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="I181">
-        <v>11.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J181" t="s">
         <v>201</v>
@@ -6780,7 +6780,7 @@
         <v>189</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -6792,13 +6792,13 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H182">
+        <v>5.5</v>
+      </c>
+      <c r="I182">
         <v>8.5</v>
-      </c>
-      <c r="I182">
-        <v>11.5</v>
       </c>
       <c r="J182" t="s">
         <v>201</v>
@@ -6812,7 +6812,7 @@
         <v>190</v>
       </c>
       <c r="C183">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -6824,13 +6824,13 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H183">
-        <v>8.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="I183">
-        <v>11.3</v>
+        <v>8.5</v>
       </c>
       <c r="J183" t="s">
         <v>201</v>
@@ -6844,7 +6844,7 @@
         <v>191</v>
       </c>
       <c r="C184">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -6856,13 +6856,13 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H184">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="I184">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="J184" t="s">
         <v>201</v>
@@ -6876,7 +6876,7 @@
         <v>192</v>
       </c>
       <c r="C185">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -6888,13 +6888,13 @@
         <v>0</v>
       </c>
       <c r="G185">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H185">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="I185">
-        <v>10.8</v>
+        <v>8.5</v>
       </c>
       <c r="J185" t="s">
         <v>201</v>
@@ -6908,7 +6908,7 @@
         <v>193</v>
       </c>
       <c r="C186">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -6920,13 +6920,13 @@
         <v>0</v>
       </c>
       <c r="G186">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H186">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="I186">
-        <v>10.9</v>
+        <v>8.5</v>
       </c>
       <c r="J186" t="s">
         <v>201</v>
@@ -6940,7 +6940,7 @@
         <v>194</v>
       </c>
       <c r="C187">
-        <v>7.6</v>
+        <v>9.9</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -6952,13 +6952,13 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>2.9</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H187">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="I187">
-        <v>10.9</v>
+        <v>8.6</v>
       </c>
       <c r="J187" t="s">
         <v>201</v>
@@ -6972,7 +6972,7 @@
         <v>195</v>
       </c>
       <c r="C188">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -6984,13 +6984,13 @@
         <v>0</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H188">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="I188">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="J188" t="s">
         <v>201</v>
@@ -7004,7 +7004,7 @@
         <v>196</v>
       </c>
       <c r="C189">
-        <v>7.4</v>
+        <v>9.9</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7016,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="G189">
-        <v>3.1</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H189">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="I189">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="J189" t="s">
         <v>201</v>
@@ -7036,7 +7036,7 @@
         <v>197</v>
       </c>
       <c r="C190">
-        <v>7.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -7048,13 +7048,13 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>3.2</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="H190">
-        <v>8.199999999999999</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="I190">
-        <v>11.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J190" t="s">
         <v>201</v>
@@ -7068,7 +7068,7 @@
         <v>198</v>
       </c>
       <c r="C191">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -7080,13 +7080,13 @@
         <v>0</v>
       </c>
       <c r="G191">
-        <v>3.3</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="H191">
-        <v>8.300000000000001</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="I191">
-        <v>11.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J191" t="s">
         <v>201</v>
@@ -7100,7 +7100,7 @@
         <v>199</v>
       </c>
       <c r="C192">
-        <v>7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -7112,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="G192">
-        <v>3.5</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H192">
-        <v>8.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I192">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J192" t="s">
         <v>201</v>
@@ -7132,7 +7132,7 @@
         <v>200</v>
       </c>
       <c r="C193">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7144,13 +7144,13 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>3.8</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="H193">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="I193">
-        <v>11.8</v>
+        <v>8.9</v>
       </c>
       <c r="J193" t="s">
         <v>201</v>
